--- a/ml/Benchmark_Results.xlsx
+++ b/ml/Benchmark_Results.xlsx
@@ -40,16 +40,16 @@
     <t>xgboost</t>
   </si>
   <si>
-    <t>{'0': {'precision': 0.8816489361702128, 'recall': 0.884, 'f1-score': 0.8828229027962717, 'support': 750.0}, '1': {'precision': 0.41216216216216217, 'recall': 0.4066666666666667, 'f1-score': 0.40939597315436244, 'support': 150.0}, 'accuracy': 0.8044444444444444, 'macro avg': {'precision': 0.6469055491661875, 'recall': 0.6453333333333333, 'f1-score': 0.6461094379753171, 'support': 900.0}, 'weighted avg': {'precision': 0.8034011405022043, 'recall': 0.8044444444444444, 'f1-score': 0.8039184145226201, 'support': 900.0}}</t>
-  </si>
-  <si>
-    <t>{'0': {'precision': 0.8539458186101295, 'recall': 0.9666666666666667, 'f1-score': 0.9068167604752971, 'support': 750.0}, '1': {'precision': 0.5098039215686274, 'recall': 0.17333333333333334, 'f1-score': 0.2587064676616916, 'support': 150.0}, 'accuracy': 0.8344444444444444, 'macro avg': {'precision': 0.6818748700893784, 'recall': 0.5700000000000001, 'f1-score': 0.5827616140684944, 'support': 900.0}, 'weighted avg': {'precision': 0.7965888357698792, 'recall': 0.8344444444444444, 'f1-score': 0.7987983783396962, 'support': 900.0}}</t>
-  </si>
-  <si>
-    <t>{'0': {'precision': 0.859880239520958, 'recall': 0.9573333333333334, 'f1-score': 0.9059936908517351, 'support': 750.0}, '1': {'precision': 0.5076923076923077, 'recall': 0.22, 'f1-score': 0.30697674418604654, 'support': 150.0}, 'accuracy': 0.8344444444444444, 'macro avg': {'precision': 0.6837862736066329, 'recall': 0.5886666666666667, 'f1-score': 0.6064852175188908, 'support': 900.0}, 'weighted avg': {'precision': 0.8011822508828497, 'recall': 0.8344444444444444, 'f1-score': 0.8061575330741203, 'support': 900.0}}</t>
-  </si>
-  <si>
-    <t>{'0': {'precision': 0.8549346016646849, 'recall': 0.9586666666666667, 'f1-score': 0.9038340666247644, 'support': 750.0}, '1': {'precision': 0.4745762711864407, 'recall': 0.18666666666666668, 'f1-score': 0.2679425837320574, 'support': 150.0}, 'accuracy': 0.83, 'macro avg': {'precision': 0.6647554364255628, 'recall': 0.5726666666666667, 'f1-score': 0.5858883251784109, 'support': 900.0}, 'weighted avg': {'precision': 0.7915415465849774, 'recall': 0.83, 'f1-score': 0.7978521528093132, 'support': 900.0}}</t>
+    <t>{'0': {'precision': 0.864406779661017, 'recall': 0.884, 'f1-score': 0.8740936058009229, 'support': 750.0}, '1': {'precision': 0.3458646616541353, 'recall': 0.30666666666666664, 'f1-score': 0.3250883392226148, 'support': 150.0}, 'accuracy': 0.7877777777777778, 'macro avg': {'precision': 0.6051357206575761, 'recall': 0.5953333333333333, 'f1-score': 0.5995909725117688, 'support': 900.0}, 'weighted avg': {'precision': 0.7779830933265368, 'recall': 0.7877777777777778, 'f1-score': 0.7825927280378715, 'support': 900.0}}</t>
+  </si>
+  <si>
+    <t>{'0': {'precision': 0.8524203069657615, 'recall': 0.9626666666666667, 'f1-score': 0.9041953663118347, 'support': 750.0}, '1': {'precision': 0.4716981132075472, 'recall': 0.16666666666666666, 'f1-score': 0.24630541871921183, 'support': 150.0}, 'accuracy': 0.83, 'macro avg': {'precision': 0.6620592100866544, 'recall': 0.5646666666666667, 'f1-score': 0.5752503925155232, 'support': 900.0}, 'weighted avg': {'precision': 0.7889666080060591, 'recall': 0.83, 'f1-score': 0.7945470417130642, 'support': 900.0}}</t>
+  </si>
+  <si>
+    <t>{'0': {'precision': 0.8605482717520858, 'recall': 0.9626666666666667, 'f1-score': 0.908747640025173, 'support': 750.0}, '1': {'precision': 0.5409836065573771, 'recall': 0.22, 'f1-score': 0.3127962085308057, 'support': 150.0}, 'accuracy': 0.8388888888888889, 'macro avg': {'precision': 0.7007659391547314, 'recall': 0.5913333333333334, 'f1-score': 0.6107719242779894, 'support': 900.0}, 'weighted avg': {'precision': 0.8072874942196343, 'recall': 0.8388888888888889, 'f1-score': 0.8094224014427785, 'support': 900.0}}</t>
+  </si>
+  <si>
+    <t>{'0': {'precision': 0.8604091456077015, 'recall': 0.9533333333333334, 'f1-score': 0.9044908285895004, 'support': 750.0}, '1': {'precision': 0.4927536231884058, 'recall': 0.22666666666666666, 'f1-score': 0.3105022831050228, 'support': 150.0}, 'accuracy': 0.8322222222222222, 'macro avg': {'precision': 0.6765813843980537, 'recall': 0.59, 'f1-score': 0.6074965558472616, 'support': 900.0}, 'weighted avg': {'precision': 0.7991332252044856, 'recall': 0.8322222222222222, 'f1-score': 0.8054927376754207, 'support': 900.0}}</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.8044444444444444</v>
+        <v>0.7877777777777778</v>
       </c>
       <c r="C2">
-        <v>0.6453333333333333</v>
+        <v>0.5953333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -446,10 +446,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.8344444444444444</v>
+        <v>0.83</v>
       </c>
       <c r="C3">
-        <v>0.5700000000000001</v>
+        <v>0.5646666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -460,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.8344444444444444</v>
+        <v>0.8388888888888889</v>
       </c>
       <c r="C4">
-        <v>0.5886666666666667</v>
+        <v>0.5913333333333334</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -474,10 +474,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.83</v>
+        <v>0.8322222222222222</v>
       </c>
       <c r="C5">
-        <v>0.5726666666666667</v>
+        <v>0.59</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
